--- a/VersionRecords/Version 5.0.3.1 20161012/版本Bug和特性计划及评审表v5.0.3.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.1 20161012/版本Bug和特性计划及评审表v5.0.3.1_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3.1 20161012\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -150,12 +145,24 @@
     <t>代码在合并的时候被覆盖了</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -798,14 +805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -830,7 +837,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -889,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -917,10 +924,18 @@
       <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42655</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -929,7 +944,7 @@
       </c>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -967,7 +982,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14"/>
       <c r="B4" s="17"/>
       <c r="C4" s="15"/>
@@ -989,7 +1004,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
@@ -1011,7 +1026,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14"/>
       <c r="B6" s="17"/>
       <c r="C6" s="15"/>
@@ -1033,7 +1048,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
@@ -1055,7 +1070,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="15"/>
@@ -1077,7 +1092,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
@@ -1099,7 +1114,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="15"/>
@@ -1121,7 +1136,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
@@ -1143,7 +1158,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="15"/>
@@ -1165,7 +1180,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
@@ -1187,7 +1202,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
@@ -1209,7 +1224,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
@@ -1231,7 +1246,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1253,7 +1268,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1275,7 +1290,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1297,7 +1312,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1319,7 +1334,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1341,7 +1356,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1363,7 +1378,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1385,7 +1400,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1407,7 +1422,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
@@ -1429,7 +1444,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
@@ -1451,7 +1466,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -1473,7 +1488,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -1495,7 +1510,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1516,7 +1531,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -1537,7 +1552,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -1558,7 +1573,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -1579,7 +1594,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -1600,7 +1615,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -1621,7 +1636,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -1642,7 +1657,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -1663,7 +1678,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -1684,7 +1699,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1705,7 +1720,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1726,7 +1741,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1747,7 +1762,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -1768,7 +1783,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -1789,7 +1804,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -1810,7 +1825,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -1831,7 +1846,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -1852,7 +1867,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -1873,7 +1888,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -1894,7 +1909,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -1915,7 +1930,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -1936,7 +1951,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -1957,7 +1972,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -1978,7 +1993,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -1999,7 +2014,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2020,7 +2035,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2041,7 +2056,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2062,7 +2077,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2083,7 +2098,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2104,7 +2119,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2125,7 +2140,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2146,7 +2161,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2167,7 +2182,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2188,7 +2203,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2209,7 +2224,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2230,7 +2245,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2251,7 +2266,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2272,7 +2287,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2293,7 +2308,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2314,7 +2329,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2335,7 +2350,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2356,7 +2371,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2377,7 +2392,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2398,7 +2413,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2419,7 +2434,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2440,7 +2455,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2461,7 +2476,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2482,7 +2497,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2503,7 +2518,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2524,7 +2539,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2545,7 +2560,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2566,7 +2581,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2587,7 +2602,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2608,7 +2623,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2629,7 +2644,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2650,7 +2665,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2671,7 +2686,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2692,7 +2707,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2713,7 +2728,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2734,7 +2749,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -2755,7 +2770,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -2776,7 +2791,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -2797,7 +2812,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -2818,7 +2833,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -2839,7 +2854,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -2860,7 +2875,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -2881,7 +2896,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -2902,7 +2917,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -2923,7 +2938,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -2944,7 +2959,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -2965,7 +2980,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -2986,7 +3001,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3007,7 +3022,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3028,7 +3043,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3049,7 +3064,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3070,7 +3085,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3091,7 +3106,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3112,7 +3127,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3133,7 +3148,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3154,7 +3169,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3175,7 +3190,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3196,7 +3211,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3217,7 +3232,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3238,7 +3253,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3259,7 +3274,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3280,7 +3295,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3301,7 +3316,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3322,7 +3337,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3343,7 +3358,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3364,7 +3379,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3385,7 +3400,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3406,7 +3421,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3427,7 +3442,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3448,7 +3463,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3469,7 +3484,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3490,7 +3505,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3511,7 +3526,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3532,7 +3547,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3553,7 +3568,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3574,7 +3589,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3595,7 +3610,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3616,7 +3631,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3637,7 +3652,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3658,7 +3673,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3679,7 +3694,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3700,7 +3715,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3721,7 +3736,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3742,7 +3757,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -3763,7 +3778,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -3784,7 +3799,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -3805,7 +3820,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -3826,7 +3841,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -3847,7 +3862,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -3868,7 +3883,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -3889,7 +3904,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -3910,7 +3925,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -3931,7 +3946,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -3952,7 +3967,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -3973,7 +3988,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -3994,7 +4009,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4015,7 +4030,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4036,7 +4051,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4054,7 +4069,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4072,7 +4087,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4090,7 +4105,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4108,7 +4123,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4126,7 +4141,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4144,7 +4159,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4162,7 +4177,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4180,7 +4195,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4198,7 +4213,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4216,7 +4231,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4234,7 +4249,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4252,7 +4267,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4270,7 +4285,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4288,7 +4303,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4306,7 +4321,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4324,7 +4339,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4342,7 +4357,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4360,7 +4375,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4378,7 +4393,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4396,7 +4411,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4414,7 +4429,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4432,7 +4447,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4450,7 +4465,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4468,7 +4483,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4486,7 +4501,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4504,7 +4519,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4522,7 +4537,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4540,7 +4555,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4558,7 +4573,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4576,7 +4591,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4594,7 +4609,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4612,7 +4627,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4630,7 +4645,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4648,7 +4663,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4675,14 +4690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4693,7 +4708,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4719,7 +4734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4729,7 +4744,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4739,7 +4754,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4749,7 +4764,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4759,7 +4774,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4769,7 +4784,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4779,7 +4794,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4789,7 +4804,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4799,7 +4814,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4809,7 +4824,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4819,7 +4834,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4829,7 +4844,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4839,7 +4854,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4849,7 +4864,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4859,7 +4874,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4869,7 +4884,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4879,7 +4894,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4889,7 +4904,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.0.3.1 20161012/版本Bug和特性计划及评审表v5.0.3.1_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.1 20161012/版本Bug和特性计划及评审表v5.0.3.1_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -809,7 +809,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="L3" sqref="L3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -972,10 +972,18 @@
       <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42655</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
